--- a/src/main/resources/template/bankAccountExportTemplate.xlsx
+++ b/src/main/resources/template/bankAccountExportTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20625" windowHeight="12090" tabRatio="597"/>
+    <workbookView windowWidth="28065" windowHeight="11310" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>工号</t>
   </si>
@@ -43,6 +43,9 @@
     <t>开户行</t>
   </si>
   <si>
+    <t>来源系统</t>
+  </si>
+  <si>
     <t>{.code}</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>{.subBranchName}</t>
+  </si>
+  <si>
+    <t>{.sourceType}</t>
   </si>
 </sst>
 </file>
@@ -75,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -106,8 +112,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -119,14 +132,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -141,19 +154,6 @@
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -165,29 +165,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="19"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -206,6 +193,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="53"/>
@@ -215,6 +208,19 @@
     <font>
       <sz val="11"/>
       <color indexed="53"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="19"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -240,91 +246,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="24"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,6 +347,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -359,17 +374,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="48"/>
       </bottom>
       <diagonal/>
     </border>
@@ -389,31 +398,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="48"/>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color indexed="48"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="48"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,6 +436,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="48"/>
+      </top>
+      <bottom style="double">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -452,7 +458,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -464,7 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -473,115 +479,115 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,10 +941,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -952,9 +958,10 @@
     <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:9">
+    <row r="1" ht="39" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -982,34 +989,40 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
